--- a/templates/enterprise-scale/contoso/platform/IP Address Plan.xlsx
+++ b/templates/enterprise-scale/contoso/platform/IP Address Plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10202"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurentlesle/git/github.com/LaurentLesle/contoso/landingzones/templates/enterprise-scale/contoso/platform/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F69D54E7-DF52-E545-A6B5-229CABEADBB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33794AA6-2B93-FA4B-B1F6-986A722BE3B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="-25500" windowWidth="34960" windowHeight="22500" activeTab="1" xr2:uid="{D1797880-C0D8-B94F-99FD-BBF4DE362A45}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="34960" windowHeight="22500" activeTab="1" xr2:uid="{D1797880-C0D8-B94F-99FD-BBF4DE362A45}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="91">
   <si>
     <t>Region1</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Usable Address range</t>
   </si>
   <si>
-    <t>level0</t>
-  </si>
-  <si>
     <t>launchpad</t>
   </si>
   <si>
@@ -111,18 +108,12 @@
     <t>10.102.10.0/25</t>
   </si>
   <si>
-    <t>10.101.10.193 - 10.101.10.254</t>
-  </si>
-  <si>
     <t>10.101.10.192/26</t>
   </si>
   <si>
     <t>10.101.10.0/27</t>
   </si>
   <si>
-    <t>10.101.10.1 - 10.101.10.30</t>
-  </si>
-  <si>
     <t>gitops agents</t>
   </si>
   <si>
@@ -150,12 +141,6 @@
     <t>10.101.10.48/28</t>
   </si>
   <si>
-    <t>10.101.10.33 - 10.101.10.46</t>
-  </si>
-  <si>
-    <t>10.101.10.49 - 10.101.10.62</t>
-  </si>
-  <si>
     <t>Usable address space</t>
   </si>
   <si>
@@ -192,9 +177,6 @@
     <t>10.102.52.0/24</t>
   </si>
   <si>
-    <t>10.101.50.0-10.101.59.0</t>
-  </si>
-  <si>
     <t>Virtual Hubs</t>
   </si>
   <si>
@@ -256,6 +238,78 @@
   </si>
   <si>
     <t>10.202.128.1 - 10.202.255.254</t>
+  </si>
+  <si>
+    <t>Identity</t>
+  </si>
+  <si>
+    <t>adds</t>
+  </si>
+  <si>
+    <t>10.101.48.0/21</t>
+  </si>
+  <si>
+    <t>10.101.56.0/21</t>
+  </si>
+  <si>
+    <t>10.101.56.0/27</t>
+  </si>
+  <si>
+    <t>10.101.56.192/26</t>
+  </si>
+  <si>
+    <t>aadds</t>
+  </si>
+  <si>
+    <t>10.101.56.32/27</t>
+  </si>
+  <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>10.101.64.0/21</t>
+  </si>
+  <si>
+    <t>CAF</t>
+  </si>
+  <si>
+    <t>10.101.0.1-10.101.7.254</t>
+  </si>
+  <si>
+    <t>10.101.0.0/21</t>
+  </si>
+  <si>
+    <t>10.101.48.1-10.101.55.254</t>
+  </si>
+  <si>
+    <t>10.101.56.1-10.101.63.254</t>
+  </si>
+  <si>
+    <t>10.101.64.1-10.101.71.254</t>
+  </si>
+  <si>
+    <t>10.102.0.0/21</t>
+  </si>
+  <si>
+    <t>10.102.48.0/21</t>
+  </si>
+  <si>
+    <t>10.102.56.0/21</t>
+  </si>
+  <si>
+    <t>10.102.64.0/21</t>
+  </si>
+  <si>
+    <t>Number of IP</t>
+  </si>
+  <si>
+    <t>Vnet</t>
+  </si>
+  <si>
+    <t>10.101.56.128/26</t>
+  </si>
+  <si>
+    <t>10.101.56.112/28</t>
   </si>
 </sst>
 </file>
@@ -271,7 +325,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,6 +335,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,12 +357,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -635,14 +699,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="E1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="2"/>
+      <c r="B1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -668,16 +732,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
       <c r="E4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" t="s">
         <v>61</v>
-      </c>
-      <c r="F4" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -685,16 +749,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
       <c r="E5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" t="s">
         <v>62</v>
-      </c>
-      <c r="F5" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -702,16 +766,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
       <c r="E6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" t="s">
         <v>63</v>
-      </c>
-      <c r="F6" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -738,16 +802,16 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
       <c r="E11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" t="s">
         <v>64</v>
-      </c>
-      <c r="F11" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -755,16 +819,16 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" t="s">
         <v>65</v>
-      </c>
-      <c r="F12" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -772,16 +836,16 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
         <v>20</v>
       </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
       <c r="E13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" t="s">
         <v>66</v>
-      </c>
-      <c r="F13" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -796,10 +860,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E88A3B98-A08B-664C-8F8B-6D78CD5EC681}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="171" zoomScaleNormal="171" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -811,176 +875,295 @@
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="4"/>
+      <c r="I1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
       <c r="D5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
         <v>28</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E9" t="s">
-        <v>31</v>
       </c>
       <c r="F9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>48</v>
+      </c>
+      <c r="I22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>90</v>
+      </c>
+      <c r="F31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" t="s">
-        <v>47</v>
-      </c>
-      <c r="H18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D22" t="s">
-        <v>54</v>
-      </c>
-      <c r="H22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" t="s">
-        <v>55</v>
-      </c>
-      <c r="F23" t="s">
-        <v>56</v>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
